--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Desktop\p\entrance-exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\entrance-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D65CE7-56CB-4D3D-8A5B-16CB75E5CA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{220634C2-DCE3-4A4B-97ED-99F2E49F44F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NAME HERE</t>
   </si>
@@ -91,12 +90,15 @@
   </si>
   <si>
     <t>Science Score</t>
+  </si>
+  <si>
+    <t>Total Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B247FE-0D5E-4E6D-9248-0ED9054E886F}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +469,10 @@
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -524,8 +527,11 @@
       <c r="R1" t="s">
         <v>18</v>
       </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
